--- a/trend_results/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
+++ b/trend_results/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>site name</t>
   </si>
@@ -112,12 +112,12 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
@@ -127,16 +127,25 @@
     <t>Likely improving</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
     <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,37 +618,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
       <c r="F2">
-        <v>0.796209877808425</v>
+        <v>0.830519582516934</v>
       </c>
       <c r="G2">
-        <v>0.125</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="H2">
-        <v>0.729166666666667</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="K2">
-        <v>-0.818042617930157</v>
+        <v>-0.202354570637119</v>
       </c>
       <c r="L2">
-        <v>-3.32796646296625</v>
+        <v>-1.40419976053571</v>
       </c>
       <c r="M2">
-        <v>0.922654575452257</v>
+        <v>0.270377745142667</v>
       </c>
       <c r="N2">
-        <v>-6.29263552253967</v>
+        <v>-1.92718638702018</v>
       </c>
       <c r="O2" t="s">
         <v>35</v>
@@ -654,19 +663,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -683,34 +692,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.179650326951286</v>
+        <v>0.430641649146877</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9375</v>
+        <v>0.96078431372549</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.075</v>
+        <v>2.31</v>
       </c>
       <c r="K3">
-        <v>-0.0837955465587045</v>
+        <v>-0.0301030219780222</v>
       </c>
       <c r="L3">
-        <v>-0.206999817397547</v>
+        <v>-0.167438161790994</v>
       </c>
       <c r="M3">
-        <v>0.0625910466398903</v>
+        <v>0.160709129779148</v>
       </c>
       <c r="N3">
-        <v>-4.03833959319058</v>
+        <v>-1.30316112458971</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -725,19 +734,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -754,16 +763,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.7818764859965061</v>
+        <v>0.45955823051508</v>
       </c>
       <c r="G4">
-        <v>0.479166666666667</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H4">
-        <v>0.25</v>
+        <v>0.288461538461538</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -787,7 +796,7 @@
         <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1794378.46047</v>
@@ -796,19 +805,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,40 +834,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.865404325953589</v>
+        <v>0.562804306010512</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.967741935483871</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.0348305452222879</v>
       </c>
       <c r="K5">
-        <v>-0.0067422053938177</v>
+        <v>-0.0012435014942059</v>
       </c>
       <c r="L5">
-        <v>-0.0184974396103085</v>
+        <v>-0.0136458904275871</v>
       </c>
       <c r="M5">
-        <v>0.0023365415071919</v>
+        <v>0.0060417033564951</v>
       </c>
       <c r="N5">
-        <v>-16.8555134845443</v>
+        <v>-3.57014650867485</v>
       </c>
       <c r="O5" t="s">
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1794378.46047</v>
@@ -867,19 +876,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -899,19 +908,19 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>0.290034705260014</v>
+        <v>0.09864686560651729</v>
       </c>
       <c r="G6">
-        <v>0.354166666666667</v>
+        <v>0.326923076923077</v>
       </c>
       <c r="H6">
-        <v>0.666666666666667</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.043</v>
+        <v>0.0515</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.000830516374559</v>
+        <v>0.0057765390450649</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -929,7 +938,7 @@
         <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1794378.46047</v>
@@ -938,19 +947,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -964,43 +973,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.051996172314399</v>
+        <v>0.213162771692204</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.952380952380952</v>
+        <v>0.92</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.025</v>
+        <v>7.915</v>
       </c>
       <c r="K7">
-        <v>-0.142893606870229</v>
+        <v>-0.0589112903225803</v>
       </c>
       <c r="L7">
-        <v>-0.301413861202126</v>
+        <v>-0.212942852791012</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06332960081463961</v>
       </c>
       <c r="N7">
-        <v>-1.78060569308697</v>
+        <v>-0.744299309192423</v>
       </c>
       <c r="O7" t="s">
         <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1794378.46047</v>
@@ -1009,16 +1018,16 @@
         <v>5558593.04122</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1035,40 +1044,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.0171162805649688</v>
+        <v>0.335189370332378</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.791666666666667</v>
+        <v>0.7307692307692309</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.205</v>
+        <v>1.21</v>
       </c>
       <c r="K8">
-        <v>0.0575997217068645</v>
+        <v>0.0169568245125348</v>
       </c>
       <c r="L8">
-        <v>0.0188413748099974</v>
+        <v>-0.0212051406335171</v>
       </c>
       <c r="M8">
-        <v>0.0899331676664426</v>
+        <v>0.0614775242941756</v>
       </c>
       <c r="N8">
-        <v>4.78005989268585</v>
+        <v>1.40139045558139</v>
       </c>
       <c r="O8" t="s">
         <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q8">
         <v>1794378.46047</v>
@@ -1077,19 +1086,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1106,40 +1115,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.0171162805649688</v>
+        <v>0.0018373450626329</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.833333333333333</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.074</v>
+        <v>0.0755</v>
       </c>
       <c r="K9">
-        <v>0.007673319327731</v>
+        <v>0.0123643641354071</v>
       </c>
       <c r="L9">
-        <v>0.0024390986761266</v>
+        <v>0.0059151732670619</v>
       </c>
       <c r="M9">
-        <v>0.0129208874096338</v>
+        <v>0.015928950070995</v>
       </c>
       <c r="N9">
-        <v>10.3693504428799</v>
+        <v>16.3766412389498</v>
       </c>
       <c r="O9" t="s">
         <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1794378.46047</v>
@@ -1148,19 +1157,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,34 +1183,34 @@
         <v>10</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.484168374372062</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.123076923076923</v>
+        <v>0.12</v>
       </c>
       <c r="H10">
-        <v>0.707692307692308</v>
+        <v>0.64</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.763657783055996</v>
+        <v>-0.511712270496268</v>
       </c>
       <c r="M10">
-        <v>1.02666037252987</v>
+        <v>0.529345731256073</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1210,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1794378.46047</v>
@@ -1219,19 +1228,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,49 +1248,49 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11">
-        <v>0.828777954724778</v>
+        <v>0.976906190174986</v>
       </c>
       <c r="G11">
-        <v>0.446153846153846</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.230769230769231</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.129556616643929</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0220745024519949</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.19052018316381</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.28915614776355</v>
       </c>
       <c r="O11" t="s">
         <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1794378.46047</v>
@@ -1290,19 +1299,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,31 +1319,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.813561275983799</v>
       </c>
       <c r="G12">
-        <v>0.323076923076923</v>
+        <v>0.426666666666667</v>
       </c>
       <c r="H12">
-        <v>0.692307692307692</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.047</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1352,7 +1361,7 @@
         <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q12">
         <v>1794378.46047</v>
@@ -1361,19 +1370,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,43 +1390,43 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>0.196243503906655</v>
+        <v>0.639593481029987</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.306666666666667</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.693333333333333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1.21</v>
+        <v>0.047</v>
       </c>
       <c r="K13">
-        <v>0.0156590971748149</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.014316899953073</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0403399919469093</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.2941402623814</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>35</v>
@@ -1432,19 +1441,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="W13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,7 +1461,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1461,40 +1470,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>0.399810920956542</v>
+        <v>0.31080036060792</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.784615384615385</v>
+        <v>0.746666666666667</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.074</v>
+        <v>1.21</v>
       </c>
       <c r="K14">
-        <v>0.000493581081081</v>
+        <v>0.0072126777251184</v>
       </c>
       <c r="L14">
-        <v>-0.0030953415552526</v>
+        <v>-0.0201511330353823</v>
       </c>
       <c r="M14">
-        <v>0.0038868678710332</v>
+        <v>0.0245757115389936</v>
       </c>
       <c r="N14">
-        <v>0.66700146092038</v>
+        <v>0.596089068191611</v>
       </c>
       <c r="O14" t="s">
         <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>1794378.46047</v>
@@ -1503,19 +1512,90 @@
         <v>5558593.04122</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>0.0296144989686467</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.773333333333333</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.074</v>
+      </c>
+      <c r="K15">
+        <v>0.0025873671782762</v>
+      </c>
+      <c r="L15">
+        <v>0.0003365103211745</v>
+      </c>
+      <c r="M15">
+        <v>0.0055592924880829</v>
+      </c>
+      <c r="N15">
+        <v>3.49644213280577</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
         <v>43</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Q15">
+        <v>1794378.46047</v>
+      </c>
+      <c r="R15">
+        <v>5558593.04122</v>
+      </c>
+      <c r="S15" t="s">
         <v>44</v>
       </c>
-      <c r="W14" t="s">
-        <v>49</v>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
+++ b/trend_results/Lakes/LakeDuddingComposite_bf547b7d5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="55">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Dudding (Composite)</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -124,12 +127,12 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t>West_5</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -530,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,40 +627,40 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.830519582516934</v>
+        <v>0.6648106296676221</v>
       </c>
       <c r="G2">
-        <v>0.115384615384615</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.673076923076923</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.5</v>
+        <v>0.63465</v>
       </c>
       <c r="K2">
-        <v>-0.202354570637119</v>
+        <v>-0.0054687156593406</v>
       </c>
       <c r="L2">
-        <v>-1.40419976053571</v>
+        <v>-0.0357409848283422</v>
       </c>
       <c r="M2">
-        <v>0.270377745142667</v>
+        <v>0.0061025060322749</v>
       </c>
       <c r="N2">
-        <v>-1.92718638702018</v>
+        <v>-0.861690011713647</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>1794378.46047</v>
@@ -663,19 +669,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -692,40 +698,40 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.430641649146877</v>
+        <v>0.830519582516934</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="H3">
-        <v>0.96078431372549</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2.31</v>
+        <v>10.5</v>
       </c>
       <c r="K3">
-        <v>-0.0301030219780222</v>
+        <v>-0.202354570637119</v>
       </c>
       <c r="L3">
-        <v>-0.167438161790994</v>
+        <v>-1.40419976053571</v>
       </c>
       <c r="M3">
-        <v>0.160709129779148</v>
+        <v>0.270377745142667</v>
       </c>
       <c r="N3">
-        <v>-1.30316112458971</v>
+        <v>-1.92718638702018</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3">
         <v>1794378.46047</v>
@@ -734,19 +740,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -760,40 +766,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4">
-        <v>0.45955823051508</v>
+        <v>0.430641649146877</v>
       </c>
       <c r="G4">
-        <v>0.461538461538462</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.288461538461538</v>
+        <v>0.96078431372549</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2.31</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.0301030219780222</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.167438161790994</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.160709129779148</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-1.30316112458971</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
         <v>37</v>
@@ -805,19 +811,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -834,37 +840,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>0.562804306010512</v>
+        <v>0.45955823051508</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H5">
-        <v>0.964285714285714</v>
+        <v>0.288461538461538</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0348305452222879</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>-0.0012435014942059</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0136458904275871</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0060417033564951</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.57014650867485</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
         <v>37</v>
@@ -876,19 +882,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -902,43 +908,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.09864686560651729</v>
+        <v>0.562804306010512</v>
       </c>
       <c r="G6">
-        <v>0.326923076923077</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.673076923076923</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0515</v>
+        <v>0.0348305452222879</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0012435014942059</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0136458904275871</v>
       </c>
       <c r="M6">
-        <v>0.0057765390450649</v>
+        <v>0.0060417033564951</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-3.57014650867485</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1794378.46047</v>
@@ -947,19 +953,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -976,37 +982,37 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>0.213162771692204</v>
+        <v>0.09864686560651729</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.326923076923077</v>
       </c>
       <c r="H7">
-        <v>0.92</v>
+        <v>0.673076923076923</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>7.915</v>
+        <v>0.0515</v>
       </c>
       <c r="K7">
-        <v>-0.0589112903225803</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.212942852791012</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.06332960081463961</v>
+        <v>0.0057765390450649</v>
       </c>
       <c r="N7">
-        <v>-0.744299309192423</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
@@ -1018,16 +1024,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1044,40 +1053,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0.335189370332378</v>
+        <v>0.213162771692204</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.7307692307692309</v>
+        <v>0.92</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.21</v>
+        <v>7.915</v>
       </c>
       <c r="K8">
-        <v>0.0169568245125348</v>
+        <v>-0.0589112903225803</v>
       </c>
       <c r="L8">
-        <v>-0.0212051406335171</v>
+        <v>-0.212942852791012</v>
       </c>
       <c r="M8">
-        <v>0.0614775242941756</v>
+        <v>0.06332960081463961</v>
       </c>
       <c r="N8">
-        <v>1.40139045558139</v>
+        <v>-0.744299309192423</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1794378.46047</v>
@@ -1086,19 +1095,16 @@
         <v>5558593.04122</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1115,40 +1121,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0.0018373450626329</v>
+        <v>0.335189370332378</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.826923076923077</v>
+        <v>0.7307692307692309</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0755</v>
+        <v>1.21</v>
       </c>
       <c r="K9">
-        <v>0.0123643641354071</v>
+        <v>0.0169568245125348</v>
       </c>
       <c r="L9">
-        <v>0.0059151732670619</v>
+        <v>-0.0212051406335171</v>
       </c>
       <c r="M9">
-        <v>0.015928950070995</v>
+        <v>0.0614775242941756</v>
       </c>
       <c r="N9">
-        <v>16.3766412389498</v>
+        <v>1.40139045558139</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q9">
         <v>1794378.46047</v>
@@ -1157,19 +1163,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1177,10 +1183,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1189,37 +1195,37 @@
         <v>33</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.0018373450626329</v>
       </c>
       <c r="G10">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.64</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.4</v>
+        <v>0.0755</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0123643641354071</v>
       </c>
       <c r="L10">
-        <v>-0.511712270496268</v>
+        <v>0.0059151732670619</v>
       </c>
       <c r="M10">
-        <v>0.529345731256073</v>
+        <v>0.015928950070995</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>16.3766412389498</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q10">
         <v>1794378.46047</v>
@@ -1228,19 +1234,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1257,40 +1263,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.976906190174986</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
-        <v>0.928571428571429</v>
+        <v>0.64</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2.06</v>
+        <v>9.4</v>
       </c>
       <c r="K11">
-        <v>0.129556616643929</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0220745024519949</v>
+        <v>-0.511712270496268</v>
       </c>
       <c r="M11">
-        <v>0.19052018316381</v>
+        <v>0.529345731256073</v>
       </c>
       <c r="N11">
-        <v>6.28915614776355</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>1794378.46047</v>
@@ -1299,19 +1305,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1325,43 +1331,43 @@
         <v>10</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12">
-        <v>0.813561275983799</v>
+        <v>0.976906190174986</v>
       </c>
       <c r="G12">
-        <v>0.426666666666667</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.266666666666667</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.129556616643929</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0220745024519949</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.19052018316381</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.28915614776355</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1794378.46047</v>
@@ -1370,19 +1376,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1390,31 +1396,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13">
-        <v>0.639593481029987</v>
+        <v>0.813561275983799</v>
       </c>
       <c r="G13">
-        <v>0.306666666666667</v>
+        <v>0.426666666666667</v>
       </c>
       <c r="H13">
-        <v>0.693333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.047</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1429,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>1794378.46047</v>
@@ -1441,19 +1447,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1461,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1470,40 +1476,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>0.31080036060792</v>
+        <v>0.639593481029987</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.306666666666667</v>
       </c>
       <c r="H14">
-        <v>0.746666666666667</v>
+        <v>0.693333333333333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1.21</v>
+        <v>0.047</v>
       </c>
       <c r="K14">
-        <v>0.0072126777251184</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.0201511330353823</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.0245757115389936</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.596089068191611</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q14">
         <v>1794378.46047</v>
@@ -1512,19 +1518,19 @@
         <v>5558593.04122</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1541,37 +1547,37 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>0.0296144989686467</v>
+        <v>0.31080036060792</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.773333333333333</v>
+        <v>0.746666666666667</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.074</v>
+        <v>1.21</v>
       </c>
       <c r="K15">
-        <v>0.0025873671782762</v>
+        <v>0.0072126777251184</v>
       </c>
       <c r="L15">
-        <v>0.0003365103211745</v>
+        <v>-0.0201511330353823</v>
       </c>
       <c r="M15">
-        <v>0.0055592924880829</v>
+        <v>0.0245757115389936</v>
       </c>
       <c r="N15">
-        <v>3.49644213280577</v>
+        <v>0.596089068191611</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
         <v>43</v>
@@ -1583,19 +1589,90 @@
         <v>5558593.04122</v>
       </c>
       <c r="S15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>0.0296144989686467</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.773333333333333</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.074</v>
+      </c>
+      <c r="K16">
+        <v>0.0025873671782762</v>
+      </c>
+      <c r="L16">
+        <v>0.0003365103211745</v>
+      </c>
+      <c r="M16">
+        <v>0.0055592924880829</v>
+      </c>
+      <c r="N16">
+        <v>3.49644213280577</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
         <v>44</v>
       </c>
-      <c r="T15" t="s">
+      <c r="Q16">
+        <v>1794378.46047</v>
+      </c>
+      <c r="R16">
+        <v>5558593.04122</v>
+      </c>
+      <c r="S16" t="s">
         <v>45</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T16" t="s">
         <v>46</v>
       </c>
-      <c r="V15" t="s">
+      <c r="U16" t="s">
         <v>47</v>
       </c>
-      <c r="W15" t="s">
-        <v>52</v>
+      <c r="V16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
